--- a/Student_Projects.xlsx
+++ b/Student_Projects.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="7584"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16680" windowHeight="7584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,15 +65,9 @@
     <t xml:space="preserve">Linear Color </t>
   </si>
   <si>
-    <t xml:space="preserve">The user moves in a linear distance from a surface.  This distance is translated into a color on both the stick and external monitor. The user learns and understand their position in linear color space. </t>
-  </si>
-  <si>
     <t>Questions</t>
   </si>
   <si>
-    <t xml:space="preserve">Could the user change the location of the linear gradien?  Do you want to record the color and how would that look. </t>
-  </si>
-  <si>
     <t>Carissa</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>Ultrasonic Flashlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could the user change the location of the linear gradient?  Do you want to record the color and how would that look. </t>
+  </si>
+  <si>
+    <t>The user moves in a linear distance from a surface.  This distance is translated into a color on both the stick and external monitor. The user learns and understands their position in linear color space.  The sensor is on the laptop.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +494,10 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -564,131 +564,131 @@
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -697,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
